--- a/bin/questions/Command_Interpreter.xlsx
+++ b/bin/questions/Command_Interpreter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\3rd Year UP FILES SEM 2\CMSC 125 (F)\Projects\OSCreate\OSCreate\src\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC86EF28-244B-4280-9E32-1405A246A7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC157AE2-8E02-4389-8F3C-A24F8913CFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
